--- a/02_book.xlsx
+++ b/02_book.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-nashi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_C\@GitHub\ExcelvlookupToOtherBookSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,19 +27,82 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>■別シート参照</t>
+    <t xml:space="preserve"> 別ファイルデータ読み込みエリア</t>
     <rPh sb="1" eb="2">
       <t>ベツ</t>
     </rPh>
-    <rPh sb="5" eb="7">
-      <t>サンショウ</t>
+    <rPh sb="9" eb="10">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>コ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>■vlookup</t>
+    <t xml:space="preserve"> 数値入力エリア</t>
+    <rPh sb="1" eb="3">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■ 別シート参照（01_master.xlsxからデータ読み込み）</t>
+    <rPh sb="2" eb="3">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■ vlookup（上記の参照データを対象に処理、左列が検索対象の数値）</t>
+    <rPh sb="10" eb="12">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■ vlookup（別ファイルデータを対象に処理、左列が検索対象の数値）</t>
+    <rPh sb="10" eb="11">
+      <t>ベツ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -47,7 +110,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +126,41 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -86,8 +177,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -181,13 +284,13 @@
             <v>4</v>
           </cell>
           <cell r="C6" t="str">
-            <v>444</v>
+            <v>4-1</v>
           </cell>
           <cell r="D6" t="str">
             <v>4-2</v>
           </cell>
           <cell r="E6" t="str">
-            <v>444</v>
+            <v>4-3</v>
           </cell>
           <cell r="F6" t="str">
             <v>4-4</v>
@@ -586,789 +689,944 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G37"/>
+  <dimension ref="B2:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="7" width="8.75" customWidth="1"/>
+    <col min="8" max="8" width="3.25" customWidth="1"/>
+    <col min="9" max="9" width="5.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B3" s="3">
         <f>[1]Sheet1!B3</f>
         <v>1</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3" s="3" t="str">
         <f>[1]Sheet1!C3</f>
         <v>1-1</v>
       </c>
-      <c r="D3" t="str">
+      <c r="D3" s="3" t="str">
         <f>[1]Sheet1!D3</f>
         <v>1-2</v>
       </c>
-      <c r="E3" t="str">
+      <c r="E3" s="3" t="str">
         <f>[1]Sheet1!E3</f>
         <v>1-3</v>
       </c>
-      <c r="F3" t="str">
+      <c r="F3" s="3" t="str">
         <f>[1]Sheet1!F3</f>
         <v>1-4</v>
       </c>
-      <c r="G3" t="str">
+      <c r="G3" s="3" t="str">
         <f>[1]Sheet1!G3</f>
         <v>1-5</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B4">
+      <c r="H3" s="1"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B4" s="3">
         <f>[1]Sheet1!B4</f>
         <v>2</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4" s="3" t="str">
         <f>[1]Sheet1!C4</f>
         <v>2-1</v>
       </c>
-      <c r="D4" t="str">
+      <c r="D4" s="3" t="str">
         <f>[1]Sheet1!D4</f>
         <v>2-2</v>
       </c>
-      <c r="E4" t="str">
+      <c r="E4" s="3" t="str">
         <f>[1]Sheet1!E4</f>
         <v>2-3</v>
       </c>
-      <c r="F4" t="str">
+      <c r="F4" s="3" t="str">
         <f>[1]Sheet1!F4</f>
         <v>2-4</v>
       </c>
-      <c r="G4" t="str">
+      <c r="G4" s="3" t="str">
         <f>[1]Sheet1!G4</f>
         <v>2-5</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B5">
+      <c r="H4" s="1"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B5" s="3">
         <f>[1]Sheet1!B5</f>
         <v>3</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5" s="3" t="str">
         <f>[1]Sheet1!C5</f>
         <v>3-1</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D5" s="3" t="str">
         <f>[1]Sheet1!D5</f>
         <v>3-2</v>
       </c>
-      <c r="E5" t="str">
+      <c r="E5" s="3" t="str">
         <f>[1]Sheet1!E5</f>
         <v>3-3</v>
       </c>
-      <c r="F5" t="str">
+      <c r="F5" s="3" t="str">
         <f>[1]Sheet1!F5</f>
         <v>3-4</v>
       </c>
-      <c r="G5" t="str">
+      <c r="G5" s="3" t="str">
         <f>[1]Sheet1!G5</f>
         <v>3-5</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B6">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B6" s="3">
         <f>[1]Sheet1!B6</f>
         <v>4</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6" s="3" t="str">
         <f>[1]Sheet1!C6</f>
-        <v>444</v>
-      </c>
-      <c r="D6" t="str">
+        <v>4-1</v>
+      </c>
+      <c r="D6" s="3" t="str">
         <f>[1]Sheet1!D6</f>
         <v>4-2</v>
       </c>
-      <c r="E6" t="str">
+      <c r="E6" s="3" t="str">
         <f>[1]Sheet1!E6</f>
-        <v>444</v>
-      </c>
-      <c r="F6" t="str">
+        <v>4-3</v>
+      </c>
+      <c r="F6" s="3" t="str">
         <f>[1]Sheet1!F6</f>
         <v>4-4</v>
       </c>
-      <c r="G6" t="str">
+      <c r="G6" s="3" t="str">
         <f>[1]Sheet1!G6</f>
         <v>4-5</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B7">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B7" s="3">
         <f>[1]Sheet1!B7</f>
         <v>5</v>
       </c>
-      <c r="C7" t="str">
+      <c r="C7" s="3" t="str">
         <f>[1]Sheet1!C7</f>
         <v>5-1</v>
       </c>
-      <c r="D7" t="str">
+      <c r="D7" s="3" t="str">
         <f>[1]Sheet1!D7</f>
         <v>5-2</v>
       </c>
-      <c r="E7" t="str">
+      <c r="E7" s="3" t="str">
         <f>[1]Sheet1!E7</f>
         <v>5-3</v>
       </c>
-      <c r="F7" t="str">
+      <c r="F7" s="3" t="str">
         <f>[1]Sheet1!F7</f>
         <v>5-4</v>
       </c>
-      <c r="G7" t="str">
+      <c r="G7" s="3" t="str">
         <f>[1]Sheet1!G7</f>
         <v>5-5</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B8">
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B8" s="3">
         <f>[1]Sheet1!B8</f>
         <v>6</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C8" s="3" t="str">
         <f>[1]Sheet1!C8</f>
         <v>6-1</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D8" s="3" t="str">
         <f>[1]Sheet1!D8</f>
         <v>6-2</v>
       </c>
-      <c r="E8" t="str">
+      <c r="E8" s="3" t="str">
         <f>[1]Sheet1!E8</f>
         <v>6-3</v>
       </c>
-      <c r="F8" t="str">
+      <c r="F8" s="3" t="str">
         <f>[1]Sheet1!F8</f>
         <v>6-4</v>
       </c>
-      <c r="G8" t="str">
+      <c r="G8" s="3" t="str">
         <f>[1]Sheet1!G8</f>
         <v>6-5</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B9">
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B9" s="3">
         <f>[1]Sheet1!B9</f>
         <v>7</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C9" s="3" t="str">
         <f>[1]Sheet1!C9</f>
         <v>7-1</v>
       </c>
-      <c r="D9" t="str">
+      <c r="D9" s="3" t="str">
         <f>[1]Sheet1!D9</f>
         <v>7-2</v>
       </c>
-      <c r="E9" t="str">
+      <c r="E9" s="3" t="str">
         <f>[1]Sheet1!E9</f>
         <v>7-3</v>
       </c>
-      <c r="F9" t="str">
+      <c r="F9" s="3" t="str">
         <f>[1]Sheet1!F9</f>
         <v>7-4</v>
       </c>
-      <c r="G9" t="str">
+      <c r="G9" s="3" t="str">
         <f>[1]Sheet1!G9</f>
         <v>7-5</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B10">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B10" s="3">
         <f>[1]Sheet1!B10</f>
         <v>8</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C10" s="3" t="str">
         <f>[1]Sheet1!C10</f>
         <v>8-1</v>
       </c>
-      <c r="D10" t="str">
+      <c r="D10" s="3" t="str">
         <f>[1]Sheet1!D10</f>
         <v>8-2</v>
       </c>
-      <c r="E10" t="str">
+      <c r="E10" s="3" t="str">
         <f>[1]Sheet1!E10</f>
         <v>8-3</v>
       </c>
-      <c r="F10" t="str">
+      <c r="F10" s="3" t="str">
         <f>[1]Sheet1!F10</f>
         <v>8-4</v>
       </c>
-      <c r="G10" t="str">
+      <c r="G10" s="3" t="str">
         <f>[1]Sheet1!G10</f>
         <v>8-5</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B11">
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B11" s="3">
         <f>[1]Sheet1!B11</f>
         <v>9</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C11" s="3" t="str">
         <f>[1]Sheet1!C11</f>
         <v>9-1</v>
       </c>
-      <c r="D11" t="str">
+      <c r="D11" s="3" t="str">
         <f>[1]Sheet1!D11</f>
         <v>9-2</v>
       </c>
-      <c r="E11" t="str">
+      <c r="E11" s="3" t="str">
         <f>[1]Sheet1!E11</f>
         <v>9-3</v>
       </c>
-      <c r="F11" t="str">
+      <c r="F11" s="3" t="str">
         <f>[1]Sheet1!F11</f>
         <v>9-4</v>
       </c>
-      <c r="G11" t="str">
+      <c r="G11" s="3" t="str">
         <f>[1]Sheet1!G11</f>
         <v>9-5</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B12">
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B12" s="3">
         <f>[1]Sheet1!B12</f>
         <v>10</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C12" s="3" t="str">
         <f>[1]Sheet1!C12</f>
         <v>10-1</v>
       </c>
-      <c r="D12" t="str">
+      <c r="D12" s="3" t="str">
         <f>[1]Sheet1!D12</f>
         <v>10-2</v>
       </c>
-      <c r="E12" t="str">
+      <c r="E12" s="3" t="str">
         <f>[1]Sheet1!E12</f>
         <v>10-3</v>
       </c>
-      <c r="F12" t="str">
+      <c r="F12" s="3" t="str">
         <f>[1]Sheet1!F12</f>
         <v>10-4</v>
       </c>
-      <c r="G12" t="str">
+      <c r="G12" s="3" t="str">
         <f>[1]Sheet1!G12</f>
         <v>10-5</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B15" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="str">
+      <c r="C15" s="1" t="str">
         <f>VLOOKUP(B15,$B$3:$G$12,2,FALSE)</f>
         <v>1-1</v>
       </c>
-      <c r="D15" t="str">
+      <c r="D15" s="1" t="str">
         <f>VLOOKUP(B15,$B$3:$G$12,3,FALSE)</f>
         <v>1-2</v>
       </c>
-      <c r="E15" t="str">
+      <c r="E15" s="1" t="str">
         <f>VLOOKUP(B15,$B$3:$G$12,4,FALSE)</f>
         <v>1-3</v>
       </c>
-      <c r="F15" t="str">
+      <c r="F15" s="1" t="str">
         <f>VLOOKUP(B15,$B$3:$G$12,5,FALSE)</f>
         <v>1-4</v>
       </c>
-      <c r="G15" t="str">
+      <c r="G15" s="1" t="str">
         <f>VLOOKUP(B15,$B$3:$G$12,6,FALSE)</f>
         <v>1-5</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16">
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="4">
         <v>3</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C16" s="1" t="str">
         <f t="shared" ref="C16:C24" si="0">VLOOKUP(B16,$B$3:$G$12,2,FALSE)</f>
         <v>3-1</v>
       </c>
-      <c r="D16" t="str">
+      <c r="D16" s="1" t="str">
         <f t="shared" ref="D16:D24" si="1">VLOOKUP(B16,$B$3:$G$12,3,FALSE)</f>
         <v>3-2</v>
       </c>
-      <c r="E16" t="str">
+      <c r="E16" s="1" t="str">
         <f t="shared" ref="E16:E24" si="2">VLOOKUP(B16,$B$3:$G$12,4,FALSE)</f>
         <v>3-3</v>
       </c>
-      <c r="F16" t="str">
+      <c r="F16" s="1" t="str">
         <f t="shared" ref="F16:F24" si="3">VLOOKUP(B16,$B$3:$G$12,5,FALSE)</f>
         <v>3-4</v>
       </c>
-      <c r="G16" t="str">
+      <c r="G16" s="1" t="str">
         <f t="shared" ref="G16:G24" si="4">VLOOKUP(B16,$B$3:$G$12,6,FALSE)</f>
         <v>3-5</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B17">
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B17" s="4">
         <v>4</v>
       </c>
-      <c r="C17" t="str">
+      <c r="C17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>444</v>
-      </c>
-      <c r="D17" t="str">
+        <v>4-1</v>
+      </c>
+      <c r="D17" s="1" t="str">
         <f t="shared" si="1"/>
         <v>4-2</v>
       </c>
-      <c r="E17" t="str">
+      <c r="E17" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>444</v>
-      </c>
-      <c r="F17" t="str">
+        <v>4-3</v>
+      </c>
+      <c r="F17" s="1" t="str">
         <f t="shared" si="3"/>
         <v>4-4</v>
       </c>
-      <c r="G17" t="str">
+      <c r="G17" s="1" t="str">
         <f t="shared" si="4"/>
         <v>4-5</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B18">
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B18" s="4">
         <v>5</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>5-1</v>
       </c>
-      <c r="D18" t="str">
+      <c r="D18" s="1" t="str">
         <f t="shared" si="1"/>
         <v>5-2</v>
       </c>
-      <c r="E18" t="str">
+      <c r="E18" s="1" t="str">
         <f t="shared" si="2"/>
         <v>5-3</v>
       </c>
-      <c r="F18" t="str">
+      <c r="F18" s="1" t="str">
         <f t="shared" si="3"/>
         <v>5-4</v>
       </c>
-      <c r="G18" t="str">
+      <c r="G18" s="1" t="str">
         <f t="shared" si="4"/>
         <v>5-5</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C19" t="e">
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B19" s="4">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D19" t="e">
+        <v>4-1</v>
+      </c>
+      <c r="D19" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="E19" t="e">
+        <v>4-2</v>
+      </c>
+      <c r="E19" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F19" t="e">
+        <v>4-3</v>
+      </c>
+      <c r="F19" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G19" t="e">
+        <v>4-4</v>
+      </c>
+      <c r="G19" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B20">
+        <v>4-5</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B20" s="4">
         <v>5</v>
       </c>
-      <c r="C20" t="str">
+      <c r="C20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>5-1</v>
       </c>
-      <c r="D20" t="str">
+      <c r="D20" s="1" t="str">
         <f t="shared" si="1"/>
         <v>5-2</v>
       </c>
-      <c r="E20" t="str">
+      <c r="E20" s="1" t="str">
         <f t="shared" si="2"/>
         <v>5-3</v>
       </c>
-      <c r="F20" t="str">
+      <c r="F20" s="1" t="str">
         <f t="shared" si="3"/>
         <v>5-4</v>
       </c>
-      <c r="G20" t="str">
+      <c r="G20" s="1" t="str">
         <f t="shared" si="4"/>
         <v>5-5</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C21" t="e">
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B21" s="4"/>
+      <c r="C21" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D21" t="e">
+      <c r="D21" s="1" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E21" t="e">
+      <c r="E21" s="1" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="F21" t="e">
+      <c r="F21" s="1" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="G21" t="e">
+      <c r="G21" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B22">
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B22" s="4">
         <v>6</v>
       </c>
-      <c r="C22" t="str">
+      <c r="C22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>6-1</v>
       </c>
-      <c r="D22" t="str">
+      <c r="D22" s="1" t="str">
         <f t="shared" si="1"/>
         <v>6-2</v>
       </c>
-      <c r="E22" t="str">
+      <c r="E22" s="1" t="str">
         <f t="shared" si="2"/>
         <v>6-3</v>
       </c>
-      <c r="F22" t="str">
+      <c r="F22" s="1" t="str">
         <f t="shared" si="3"/>
         <v>6-4</v>
       </c>
-      <c r="G22" t="str">
+      <c r="G22" s="1" t="str">
         <f t="shared" si="4"/>
         <v>6-5</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C23" t="e">
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B23" s="4"/>
+      <c r="C23" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D23" t="e">
+      <c r="D23" s="1" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E23" t="e">
+      <c r="E23" s="1" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="F23" t="e">
+      <c r="F23" s="1" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="G23" t="e">
+      <c r="G23" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C24" t="e">
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B24" s="4"/>
+      <c r="C24" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
-      <c r="D24" t="e">
+      <c r="D24" s="1" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="E24" t="e">
+      <c r="E24" s="1" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="F24" t="e">
+      <c r="F24" s="1" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="G24" t="e">
+      <c r="G24" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B26" t="s">
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B27" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" t="str">
+      <c r="C27" s="3" t="str">
         <f>VLOOKUP(B27,[1]Sheet1!$B$3:$G$12,2,FALSE)</f>
         <v>1-1</v>
       </c>
-      <c r="D27" t="str">
+      <c r="D27" s="3" t="str">
         <f>VLOOKUP(B27,[1]Sheet1!$B$3:$G$12,3,FALSE)</f>
         <v>1-2</v>
       </c>
-      <c r="E27" t="str">
+      <c r="E27" s="3" t="str">
         <f>VLOOKUP(B27,[1]Sheet1!$B$3:$G$12,4,FALSE)</f>
         <v>1-3</v>
       </c>
-      <c r="F27" t="str">
+      <c r="F27" s="3" t="str">
         <f>VLOOKUP(B27,[1]Sheet1!$B$3:$G$12,5,FALSE)</f>
         <v>1-4</v>
       </c>
-      <c r="G27" t="str">
+      <c r="G27" s="3" t="str">
         <f>VLOOKUP(B27,[1]Sheet1!$B$3:$G$12,6,FALSE)</f>
         <v>1-5</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B28">
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B28" s="4">
         <v>3</v>
       </c>
-      <c r="C28" t="str">
+      <c r="C28" s="3" t="str">
         <f>VLOOKUP(B28,[1]Sheet1!$B$3:$G$12,2,FALSE)</f>
         <v>3-1</v>
       </c>
-      <c r="D28" t="str">
+      <c r="D28" s="3" t="str">
         <f>VLOOKUP(B28,[1]Sheet1!$B$3:$G$12,3,FALSE)</f>
         <v>3-2</v>
       </c>
-      <c r="E28" t="str">
+      <c r="E28" s="3" t="str">
         <f>VLOOKUP(B28,[1]Sheet1!$B$3:$G$12,4,FALSE)</f>
         <v>3-3</v>
       </c>
-      <c r="F28" t="str">
+      <c r="F28" s="3" t="str">
         <f>VLOOKUP(B28,[1]Sheet1!$B$3:$G$12,5,FALSE)</f>
         <v>3-4</v>
       </c>
-      <c r="G28" t="str">
+      <c r="G28" s="3" t="str">
         <f>VLOOKUP(B28,[1]Sheet1!$B$3:$G$12,6,FALSE)</f>
         <v>3-5</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B29">
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B29" s="4">
         <v>4</v>
       </c>
-      <c r="C29" t="str">
+      <c r="C29" s="3" t="str">
         <f>VLOOKUP(B29,[1]Sheet1!$B$3:$G$12,2,FALSE)</f>
-        <v>444</v>
-      </c>
-      <c r="D29" t="str">
+        <v>4-1</v>
+      </c>
+      <c r="D29" s="3" t="str">
         <f>VLOOKUP(B29,[1]Sheet1!$B$3:$G$12,3,FALSE)</f>
         <v>4-2</v>
       </c>
-      <c r="E29" t="str">
+      <c r="E29" s="3" t="str">
         <f>VLOOKUP(B29,[1]Sheet1!$B$3:$G$12,4,FALSE)</f>
-        <v>444</v>
-      </c>
-      <c r="F29" t="str">
+        <v>4-3</v>
+      </c>
+      <c r="F29" s="3" t="str">
         <f>VLOOKUP(B29,[1]Sheet1!$B$3:$G$12,5,FALSE)</f>
         <v>4-4</v>
       </c>
-      <c r="G29" t="str">
+      <c r="G29" s="3" t="str">
         <f>VLOOKUP(B29,[1]Sheet1!$B$3:$G$12,6,FALSE)</f>
         <v>4-5</v>
       </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B30">
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B30" s="4">
         <v>5</v>
       </c>
-      <c r="C30" t="str">
+      <c r="C30" s="3" t="str">
         <f>VLOOKUP(B30,[1]Sheet1!$B$3:$G$12,2,FALSE)</f>
         <v>5-1</v>
       </c>
-      <c r="D30" t="str">
+      <c r="D30" s="3" t="str">
         <f>VLOOKUP(B30,[1]Sheet1!$B$3:$G$12,3,FALSE)</f>
         <v>5-2</v>
       </c>
-      <c r="E30" t="str">
+      <c r="E30" s="3" t="str">
         <f>VLOOKUP(B30,[1]Sheet1!$B$3:$G$12,4,FALSE)</f>
         <v>5-3</v>
       </c>
-      <c r="F30" t="str">
+      <c r="F30" s="3" t="str">
         <f>VLOOKUP(B30,[1]Sheet1!$B$3:$G$12,5,FALSE)</f>
         <v>5-4</v>
       </c>
-      <c r="G30" t="str">
+      <c r="G30" s="3" t="str">
         <f>VLOOKUP(B30,[1]Sheet1!$B$3:$G$12,6,FALSE)</f>
         <v>5-5</v>
       </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C31" t="e">
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B31" s="4"/>
+      <c r="C31" s="3" t="e">
         <f>VLOOKUP(B31,[1]Sheet1!$B$3:$G$12,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D31" t="e">
+      <c r="D31" s="3" t="e">
         <f>VLOOKUP(B31,[1]Sheet1!$B$3:$G$12,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E31" t="e">
+      <c r="E31" s="3" t="e">
         <f>VLOOKUP(B31,[1]Sheet1!$B$3:$G$12,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F31" t="e">
+      <c r="F31" s="3" t="e">
         <f>VLOOKUP(B31,[1]Sheet1!$B$3:$G$12,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G31" t="e">
+      <c r="G31" s="3" t="e">
         <f>VLOOKUP(B31,[1]Sheet1!$B$3:$G$12,6,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B32">
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B32" s="4">
         <v>5</v>
       </c>
-      <c r="C32" t="str">
+      <c r="C32" s="3" t="str">
         <f>VLOOKUP(B32,[1]Sheet1!$B$3:$G$12,2,FALSE)</f>
         <v>5-1</v>
       </c>
-      <c r="D32" t="str">
+      <c r="D32" s="3" t="str">
         <f>VLOOKUP(B32,[1]Sheet1!$B$3:$G$12,3,FALSE)</f>
         <v>5-2</v>
       </c>
-      <c r="E32" t="str">
+      <c r="E32" s="3" t="str">
         <f>VLOOKUP(B32,[1]Sheet1!$B$3:$G$12,4,FALSE)</f>
         <v>5-3</v>
       </c>
-      <c r="F32" t="str">
+      <c r="F32" s="3" t="str">
         <f>VLOOKUP(B32,[1]Sheet1!$B$3:$G$12,5,FALSE)</f>
         <v>5-4</v>
       </c>
-      <c r="G32" t="str">
+      <c r="G32" s="3" t="str">
         <f>VLOOKUP(B32,[1]Sheet1!$B$3:$G$12,6,FALSE)</f>
         <v>5-5</v>
       </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C33" t="e">
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B33" s="4"/>
+      <c r="C33" s="3" t="e">
         <f>VLOOKUP(B33,[1]Sheet1!$B$3:$G$12,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D33" t="e">
+      <c r="D33" s="3" t="e">
         <f>VLOOKUP(B33,[1]Sheet1!$B$3:$G$12,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E33" t="e">
+      <c r="E33" s="3" t="e">
         <f>VLOOKUP(B33,[1]Sheet1!$B$3:$G$12,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F33" t="e">
+      <c r="F33" s="3" t="e">
         <f>VLOOKUP(B33,[1]Sheet1!$B$3:$G$12,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G33" t="e">
+      <c r="G33" s="3" t="e">
         <f>VLOOKUP(B33,[1]Sheet1!$B$3:$G$12,6,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B34">
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B34" s="4">
         <v>6</v>
       </c>
-      <c r="C34" t="str">
+      <c r="C34" s="3" t="str">
         <f>VLOOKUP(B34,[1]Sheet1!$B$3:$G$12,2,FALSE)</f>
         <v>6-1</v>
       </c>
-      <c r="D34" t="str">
+      <c r="D34" s="3" t="str">
         <f>VLOOKUP(B34,[1]Sheet1!$B$3:$G$12,3,FALSE)</f>
         <v>6-2</v>
       </c>
-      <c r="E34" t="str">
+      <c r="E34" s="3" t="str">
         <f>VLOOKUP(B34,[1]Sheet1!$B$3:$G$12,4,FALSE)</f>
         <v>6-3</v>
       </c>
-      <c r="F34" t="str">
+      <c r="F34" s="3" t="str">
         <f>VLOOKUP(B34,[1]Sheet1!$B$3:$G$12,5,FALSE)</f>
         <v>6-4</v>
       </c>
-      <c r="G34" t="str">
+      <c r="G34" s="3" t="str">
         <f>VLOOKUP(B34,[1]Sheet1!$B$3:$G$12,6,FALSE)</f>
         <v>6-5</v>
       </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C35" t="e">
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B35" s="4"/>
+      <c r="C35" s="3" t="e">
         <f>VLOOKUP(B35,[1]Sheet1!$B$3:$G$12,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D35" t="e">
+      <c r="D35" s="3" t="e">
         <f>VLOOKUP(B35,[1]Sheet1!$B$3:$G$12,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E35" t="e">
+      <c r="E35" s="3" t="e">
         <f>VLOOKUP(B35,[1]Sheet1!$B$3:$G$12,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F35" t="e">
+      <c r="F35" s="3" t="e">
         <f>VLOOKUP(B35,[1]Sheet1!$B$3:$G$12,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G35" t="e">
+      <c r="G35" s="3" t="e">
         <f>VLOOKUP(B35,[1]Sheet1!$B$3:$G$12,6,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C36" t="e">
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B36" s="4"/>
+      <c r="C36" s="3" t="e">
         <f>VLOOKUP(B36,[1]Sheet1!$B$3:$G$12,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D36" t="e">
+      <c r="D36" s="3" t="e">
         <f>VLOOKUP(B36,[1]Sheet1!$B$3:$G$12,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E36" t="e">
+      <c r="E36" s="3" t="e">
         <f>VLOOKUP(B36,[1]Sheet1!$B$3:$G$12,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F36" t="e">
+      <c r="F36" s="3" t="e">
         <f>VLOOKUP(B36,[1]Sheet1!$B$3:$G$12,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G36" t="e">
+      <c r="G36" s="3" t="e">
         <f>VLOOKUP(B36,[1]Sheet1!$B$3:$G$12,6,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C37" t="e">
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B37" s="4"/>
+      <c r="C37" s="3" t="e">
         <f>VLOOKUP(B37,[1]Sheet1!$B$3:$G$12,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D37" t="e">
+      <c r="D37" s="3" t="e">
         <f>VLOOKUP(B37,[1]Sheet1!$B$3:$G$12,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E37" t="e">
+      <c r="E37" s="3" t="e">
         <f>VLOOKUP(B37,[1]Sheet1!$B$3:$G$12,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F37" t="e">
+      <c r="F37" s="3" t="e">
         <f>VLOOKUP(B37,[1]Sheet1!$B$3:$G$12,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="G37" t="e">
+      <c r="G37" s="3" t="e">
         <f>VLOOKUP(B37,[1]Sheet1!$B$3:$G$12,6,FALSE)</f>
         <v>#N/A</v>
       </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
